--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-medicationdosage.xlsx
@@ -1204,7 +1204,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+    <t>http://jami.jp/CodeSystem/MedicationMethodBasicUsage</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1324,7 +1324,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
   </si>
   <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードhttp://jami.jp/CodeSystem/MedicationUsage.40</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
@@ -1339,7 +1339,7 @@
     <t>Dosage.method.coding:unitDigit2.system</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+    <t>http://jami.jp/CodeSystem/MedicationMethodDetailUsage</t>
   </si>
   <si>
     <t>Dosage.method.coding:unitDigit2.version</t>
